--- a/ML/result_summary.xlsx
+++ b/ML/result_summary.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8859</v>
+        <v>0.5236</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3706</v>
+        <v>0.7574</v>
       </c>
       <c r="F2" t="n">
-        <v>2.961</v>
+        <v>1.4488</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3146</v>
+        <v>0.3073</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8270999999999999</v>
+        <v>0.8315</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2079</v>
+        <v>1.2015</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9593</v>
+        <v>0.5299</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2214</v>
+        <v>0.7523</v>
       </c>
       <c r="F3" t="n">
-        <v>4.9564</v>
+        <v>1.4586</v>
       </c>
       <c r="G3" t="n">
-        <v>0.294</v>
+        <v>0.322</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8395</v>
+        <v>0.8226</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1901</v>
+        <v>1.2145</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.4943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.7803</v>
       </c>
       <c r="F4" t="n">
-        <v>1828.8956</v>
+        <v>1.4063</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0382</v>
+        <v>0.3369</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9798</v>
+        <v>0.8136</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0197</v>
+        <v>1.228</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2701</v>
+        <v>0.1911</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9375</v>
+        <v>0.987</v>
       </c>
       <c r="F5" t="n">
-        <v>1.1705</v>
+        <v>1.1118</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2486</v>
+        <v>0.2607</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8661</v>
+        <v>0.859</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1535</v>
+        <v>1.1631</v>
       </c>
     </row>
     <row r="6">
@@ -628,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4359</v>
+        <v>0.5337</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8242</v>
+        <v>0.7494</v>
       </c>
       <c r="F6" t="n">
-        <v>1.3314</v>
+        <v>1.4643</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3795</v>
+        <v>0.2262</v>
       </c>
       <c r="H6" t="n">
-        <v>0.787</v>
+        <v>0.8789</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2695</v>
+        <v>1.1367</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9419</v>
+        <v>0.6933</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1244</v>
+        <v>2.5827</v>
       </c>
       <c r="F7" t="n">
-        <v>4.1475</v>
+        <v>1.8057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7059</v>
+        <v>0.6059</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5191</v>
+        <v>2.916</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8438</v>
+        <v>1.5928</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9858</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5561</v>
+        <v>2.528</v>
       </c>
       <c r="F8" t="n">
-        <v>8.386100000000001</v>
+        <v>1.8447</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7073</v>
+        <v>0.6365</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5131</v>
+        <v>2.8005</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8482</v>
+        <v>1.6585</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +733,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.658</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005</v>
+        <v>2.7274</v>
       </c>
       <c r="F9" t="n">
-        <v>9326.982</v>
+        <v>1.7099</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4837</v>
+        <v>0.6715</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3375</v>
+        <v>2.6621</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3917</v>
+        <v>1.7448</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5232</v>
+        <v>0.2144</v>
       </c>
       <c r="E10" t="n">
-        <v>3.2202</v>
+        <v>4.1334</v>
       </c>
       <c r="F10" t="n">
-        <v>1.4482</v>
+        <v>1.1282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3944</v>
+        <v>0.0163</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6146</v>
+        <v>4.6067</v>
       </c>
       <c r="I10" t="n">
-        <v>1.285</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +803,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.478</v>
+        <v>0.6395999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>3.3694</v>
+        <v>2.7996</v>
       </c>
       <c r="F11" t="n">
-        <v>1.3841</v>
+        <v>1.6658</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4564</v>
+        <v>0.5629</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4246</v>
+        <v>3.0707</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3563</v>
+        <v>1.5126</v>
       </c>
     </row>
     <row r="12">
@@ -838,7 +838,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8884</v>
+        <v>0.5803</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0649</v>
+        <v>0.1259</v>
       </c>
       <c r="F12" t="n">
-        <v>2.9936</v>
+        <v>1.5432</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2762</v>
+        <v>0.2912</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1604</v>
+        <v>0.1587</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1754</v>
+        <v>1.188</v>
       </c>
     </row>
     <row r="13">
@@ -873,7 +873,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9538</v>
+        <v>0.5455</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0418</v>
+        <v>0.131</v>
       </c>
       <c r="F13" t="n">
-        <v>4.648</v>
+        <v>1.4831</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1861</v>
+        <v>0.3228</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1701</v>
+        <v>0.1551</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1084</v>
+        <v>1.2155</v>
       </c>
     </row>
     <row r="14">
@@ -908,7 +908,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.5393</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005</v>
+        <v>0.1319</v>
       </c>
       <c r="F14" t="n">
-        <v>388.5731</v>
+        <v>1.473</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1544</v>
+        <v>0.3001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2026</v>
+        <v>0.1577</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9306</v>
+        <v>1.1955</v>
       </c>
     </row>
     <row r="15">
@@ -943,7 +943,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1872</v>
+        <v>0.1627</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1752</v>
+        <v>0.1778</v>
       </c>
       <c r="F15" t="n">
-        <v>1.1089</v>
+        <v>1.0927</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0882</v>
+        <v>-0.1818</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.205</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0474</v>
+        <v>0.9197</v>
       </c>
     </row>
     <row r="16">
@@ -978,7 +978,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.5462</v>
+        <v>0.6307</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1309</v>
+        <v>0.1181</v>
       </c>
       <c r="F16" t="n">
-        <v>1.4842</v>
+        <v>1.6451</v>
       </c>
       <c r="G16" t="n">
-        <v>0.193</v>
+        <v>-0.1064</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1694</v>
+        <v>0.1983</v>
       </c>
       <c r="I16" t="n">
-        <v>1.1129</v>
+        <v>0.9507</v>
       </c>
     </row>
     <row r="17">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9434</v>
+        <v>0.6934</v>
       </c>
       <c r="E17" t="n">
-        <v>1.1212</v>
+        <v>2.6093</v>
       </c>
       <c r="F17" t="n">
-        <v>4.2028</v>
+        <v>1.8059</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7157</v>
+        <v>0.6032</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5023</v>
+        <v>2.9563</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8756</v>
+        <v>1.5875</v>
       </c>
     </row>
     <row r="18">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9858</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5619</v>
+        <v>2.5544</v>
       </c>
       <c r="F18" t="n">
-        <v>8.386200000000001</v>
+        <v>1.8447</v>
       </c>
       <c r="G18" t="n">
-        <v>0.695</v>
+        <v>0.63</v>
       </c>
       <c r="H18" t="n">
-        <v>2.5919</v>
+        <v>2.8548</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8107</v>
+        <v>1.644</v>
       </c>
     </row>
     <row r="19">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.658</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0005999999999999999</v>
+        <v>2.7558</v>
       </c>
       <c r="F19" t="n">
-        <v>7853.6362</v>
+        <v>1.7099</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4837</v>
+        <v>0.6715</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3724</v>
+        <v>2.6899</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3917</v>
+        <v>1.7448</v>
       </c>
     </row>
     <row r="20">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5232</v>
+        <v>0.2144</v>
       </c>
       <c r="E20" t="n">
-        <v>3.2538</v>
+        <v>4.1766</v>
       </c>
       <c r="F20" t="n">
-        <v>1.4482</v>
+        <v>1.1282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3944</v>
+        <v>0.0163</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6523</v>
+        <v>4.6548</v>
       </c>
       <c r="I20" t="n">
-        <v>1.285</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="21">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.4761</v>
+        <v>0.6392</v>
       </c>
       <c r="E21" t="n">
-        <v>3.4109</v>
+        <v>2.8305</v>
       </c>
       <c r="F21" t="n">
-        <v>1.3815</v>
+        <v>1.6648</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4547</v>
+        <v>0.5631</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4658</v>
+        <v>3.1021</v>
       </c>
       <c r="I21" t="n">
-        <v>1.3542</v>
+        <v>1.5129</v>
       </c>
     </row>
     <row r="22">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9389</v>
+        <v>0.6916</v>
       </c>
       <c r="E22" t="n">
-        <v>2.0086</v>
+        <v>4.5116</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0445</v>
+        <v>1.8006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7218</v>
+        <v>0.5995</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2674</v>
+        <v>5.1207</v>
       </c>
       <c r="I22" t="n">
-        <v>1.896</v>
+        <v>1.5801</v>
       </c>
     </row>
     <row r="23">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9858</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9687</v>
+        <v>4.4037</v>
       </c>
       <c r="F23" t="n">
-        <v>8.3863</v>
+        <v>1.8448</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6768999999999999</v>
+        <v>0.6327</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5994</v>
+        <v>4.9034</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7592</v>
+        <v>1.6501</v>
       </c>
     </row>
     <row r="24">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.658</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0005999999999999999</v>
+        <v>4.7511</v>
       </c>
       <c r="F24" t="n">
-        <v>13539.6689</v>
+        <v>1.7099</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4837</v>
+        <v>0.6715</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8136</v>
+        <v>4.6373</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3918</v>
+        <v>1.7448</v>
       </c>
     </row>
     <row r="25">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5232</v>
+        <v>0.2144</v>
       </c>
       <c r="E25" t="n">
-        <v>5.6095</v>
+        <v>7.2005</v>
       </c>
       <c r="F25" t="n">
-        <v>1.4482</v>
+        <v>1.1282</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3944</v>
+        <v>0.0163</v>
       </c>
       <c r="H25" t="n">
-        <v>6.2966</v>
+        <v>8.024800000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>1.285</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="26">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3859</v>
+        <v>0.62</v>
       </c>
       <c r="E26" t="n">
-        <v>6.366</v>
+        <v>5.008</v>
       </c>
       <c r="F26" t="n">
-        <v>1.2761</v>
+        <v>1.6222</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3741</v>
+        <v>0.5684</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4012</v>
+        <v>5.3156</v>
       </c>
       <c r="I26" t="n">
-        <v>1.264</v>
+        <v>1.5222</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8983</v>
+        <v>0.5629</v>
       </c>
       <c r="E27" t="n">
-        <v>0.35</v>
+        <v>0.7255</v>
       </c>
       <c r="F27" t="n">
-        <v>3.1352</v>
+        <v>1.5125</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3142</v>
+        <v>0.2917</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8274</v>
+        <v>0.8408</v>
       </c>
       <c r="I27" t="n">
-        <v>1.2075</v>
+        <v>1.1882</v>
       </c>
     </row>
     <row r="28">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9658</v>
+        <v>0.572</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2028</v>
+        <v>0.7179</v>
       </c>
       <c r="F28" t="n">
-        <v>5.4109</v>
+        <v>1.5285</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3035</v>
+        <v>0.3248</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8338</v>
+        <v>0.8209</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1982</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="29">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.5563</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0005</v>
+        <v>0.7309</v>
       </c>
       <c r="F29" t="n">
-        <v>2194.6747</v>
+        <v>1.5014</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2149</v>
+        <v>0.32</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8853</v>
+        <v>0.8238</v>
       </c>
       <c r="I29" t="n">
-        <v>1.1285</v>
+        <v>1.2128</v>
       </c>
     </row>
     <row r="30">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2738</v>
+        <v>0.2164</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9351</v>
+        <v>0.9714</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1735</v>
+        <v>1.1296</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2571</v>
+        <v>0.283</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8611</v>
+        <v>0.846</v>
       </c>
       <c r="I30" t="n">
-        <v>1.1602</v>
+        <v>1.1809</v>
       </c>
     </row>
     <row r="31">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4631</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8041</v>
+        <v>0.755</v>
       </c>
       <c r="F31" t="n">
-        <v>1.3647</v>
+        <v>1.4534</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4108</v>
+        <v>0.233</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7669</v>
+        <v>0.875</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3027</v>
+        <v>1.1418</v>
       </c>
     </row>
     <row r="32">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9459</v>
+        <v>0.6915</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0848</v>
+        <v>2.5902</v>
       </c>
       <c r="F32" t="n">
-        <v>4.2989</v>
+        <v>1.8004</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7127</v>
+        <v>0.6735</v>
       </c>
       <c r="H32" t="n">
-        <v>2.4894</v>
+        <v>2.6542</v>
       </c>
       <c r="I32" t="n">
-        <v>1.8658</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="33">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9888</v>
+        <v>0.7402</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4931</v>
+        <v>2.3768</v>
       </c>
       <c r="F33" t="n">
-        <v>9.4575</v>
+        <v>1.9621</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7307</v>
+        <v>0.6742</v>
       </c>
       <c r="H33" t="n">
-        <v>2.4104</v>
+        <v>2.6513</v>
       </c>
       <c r="I33" t="n">
-        <v>1.927</v>
+        <v>1.7519</v>
       </c>
     </row>
     <row r="34">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.695</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0005999999999999999</v>
+        <v>2.5754</v>
       </c>
       <c r="F34" t="n">
-        <v>7772.485</v>
+        <v>1.8108</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5357</v>
+        <v>0.67</v>
       </c>
       <c r="H34" t="n">
-        <v>3.165</v>
+        <v>2.6684</v>
       </c>
       <c r="I34" t="n">
-        <v>1.4675</v>
+        <v>1.7406</v>
       </c>
     </row>
     <row r="35">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5245</v>
+        <v>0.237</v>
       </c>
       <c r="E35" t="n">
-        <v>3.2159</v>
+        <v>4.0736</v>
       </c>
       <c r="F35" t="n">
-        <v>1.4501</v>
+        <v>1.1448</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3995</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5993</v>
+        <v>4.4781</v>
       </c>
       <c r="I35" t="n">
-        <v>1.2905</v>
+        <v>1.0372</v>
       </c>
     </row>
     <row r="36">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4687</v>
+        <v>0.6363</v>
       </c>
       <c r="E36" t="n">
-        <v>3.3992</v>
+        <v>2.8124</v>
       </c>
       <c r="F36" t="n">
-        <v>1.3719</v>
+        <v>1.6582</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4492</v>
+        <v>0.6546</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4472</v>
+        <v>2.7296</v>
       </c>
       <c r="I36" t="n">
-        <v>1.3474</v>
+        <v>1.7016</v>
       </c>
     </row>
     <row r="37">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8953</v>
+        <v>0.5967</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0629</v>
+        <v>0.1234</v>
       </c>
       <c r="F37" t="n">
-        <v>3.0888</v>
+        <v>1.5744</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2792</v>
+        <v>0.2733</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1601</v>
+        <v>0.1607</v>
       </c>
       <c r="I37" t="n">
-        <v>1.1776</v>
+        <v>1.1732</v>
       </c>
     </row>
     <row r="38">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9708</v>
+        <v>0.5847</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0332</v>
+        <v>0.1252</v>
       </c>
       <c r="F38" t="n">
-        <v>5.852</v>
+        <v>1.5518</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2327</v>
+        <v>0.3003</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1651</v>
+        <v>0.1577</v>
       </c>
       <c r="I38" t="n">
-        <v>1.1419</v>
+        <v>1.1955</v>
       </c>
     </row>
     <row r="39">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.5666</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005</v>
+        <v>0.1279</v>
       </c>
       <c r="F39" t="n">
-        <v>388.5731</v>
+        <v>1.5191</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1011</v>
+        <v>0.295</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1787</v>
+        <v>0.1583</v>
       </c>
       <c r="I39" t="n">
-        <v>1.055</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="40">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1974</v>
+        <v>0.1842</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1741</v>
+        <v>0.1755</v>
       </c>
       <c r="F40" t="n">
-        <v>1.1159</v>
+        <v>1.107</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0854</v>
+        <v>-0.1976</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1803</v>
+        <v>0.2063</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0457</v>
+        <v>0.9139</v>
       </c>
     </row>
     <row r="41">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6067</v>
+        <v>0.6889</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1219</v>
+        <v>0.1084</v>
       </c>
       <c r="F41" t="n">
-        <v>1.5938</v>
+        <v>1.7923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2193</v>
+        <v>-0.3018</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1666</v>
+        <v>0.2151</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1316</v>
+        <v>0.8764999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9445</v>
+        <v>0.6902</v>
       </c>
       <c r="E42" t="n">
-        <v>1.1104</v>
+        <v>2.6227</v>
       </c>
       <c r="F42" t="n">
-        <v>4.2437</v>
+        <v>1.7967</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7133</v>
+        <v>0.6775</v>
       </c>
       <c r="H42" t="n">
-        <v>2.5131</v>
+        <v>2.6654</v>
       </c>
       <c r="I42" t="n">
-        <v>1.8675</v>
+        <v>1.7608</v>
       </c>
     </row>
     <row r="43">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9888</v>
+        <v>0.7402</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4983</v>
+        <v>2.4016</v>
       </c>
       <c r="F43" t="n">
-        <v>9.4565</v>
+        <v>1.9621</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7123</v>
+        <v>0.6823</v>
       </c>
       <c r="H43" t="n">
-        <v>2.5172</v>
+        <v>2.6452</v>
       </c>
       <c r="I43" t="n">
-        <v>1.8645</v>
+        <v>1.7742</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.695</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0005999999999999999</v>
+        <v>2.6023</v>
       </c>
       <c r="F44" t="n">
-        <v>7853.6362</v>
+        <v>1.8108</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5357</v>
+        <v>0.67</v>
       </c>
       <c r="H44" t="n">
-        <v>3.198</v>
+        <v>2.6962</v>
       </c>
       <c r="I44" t="n">
-        <v>1.4676</v>
+        <v>1.7407</v>
       </c>
     </row>
     <row r="45">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5245</v>
+        <v>0.237</v>
       </c>
       <c r="E45" t="n">
-        <v>3.2495</v>
+        <v>4.1161</v>
       </c>
       <c r="F45" t="n">
-        <v>1.4501</v>
+        <v>1.1448</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3995</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6369</v>
+        <v>4.5248</v>
       </c>
       <c r="I45" t="n">
-        <v>1.2905</v>
+        <v>1.0372</v>
       </c>
     </row>
     <row r="46">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.467</v>
+        <v>0.6361</v>
       </c>
       <c r="E46" t="n">
-        <v>3.4401</v>
+        <v>2.8426</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3698</v>
+        <v>1.6577</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4478</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4875</v>
+        <v>2.7579</v>
       </c>
       <c r="I46" t="n">
-        <v>1.3457</v>
+        <v>1.7017</v>
       </c>
     </row>
     <row r="47">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9379</v>
+        <v>0.6909</v>
       </c>
       <c r="E47" t="n">
-        <v>2.0246</v>
+        <v>4.5162</v>
       </c>
       <c r="F47" t="n">
-        <v>4.0125</v>
+        <v>1.7988</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7192</v>
+        <v>0.6788999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2874</v>
+        <v>4.5852</v>
       </c>
       <c r="I47" t="n">
-        <v>1.8872</v>
+        <v>1.7646</v>
       </c>
     </row>
     <row r="48">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9888</v>
+        <v>0.7402</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8591</v>
+        <v>4.1404</v>
       </c>
       <c r="F48" t="n">
-        <v>9.456200000000001</v>
+        <v>1.9621</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7186</v>
+        <v>0.6792</v>
       </c>
       <c r="H48" t="n">
-        <v>4.2919</v>
+        <v>4.5829</v>
       </c>
       <c r="I48" t="n">
-        <v>1.8852</v>
+        <v>1.7655</v>
       </c>
     </row>
     <row r="49">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.695</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0005999999999999999</v>
+        <v>4.4864</v>
       </c>
       <c r="F49" t="n">
-        <v>13539.6689</v>
+        <v>1.8108</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5358000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="H49" t="n">
-        <v>5.5125</v>
+        <v>4.6483</v>
       </c>
       <c r="I49" t="n">
-        <v>1.4678</v>
+        <v>1.7407</v>
       </c>
     </row>
     <row r="50">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5245</v>
+        <v>0.237</v>
       </c>
       <c r="E50" t="n">
-        <v>5.6021</v>
+        <v>7.0962</v>
       </c>
       <c r="F50" t="n">
-        <v>1.4501</v>
+        <v>1.1448</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3995</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>6.27</v>
+        <v>7.8008</v>
       </c>
       <c r="I50" t="n">
-        <v>1.2905</v>
+        <v>1.0372</v>
       </c>
     </row>
     <row r="51">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.3785</v>
+        <v>0.6269</v>
       </c>
       <c r="E51" t="n">
-        <v>6.4044</v>
+        <v>4.9621</v>
       </c>
       <c r="F51" t="n">
-        <v>1.2685</v>
+        <v>1.6372</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3657</v>
+        <v>0.6455</v>
       </c>
       <c r="H51" t="n">
-        <v>6.4438</v>
+        <v>4.8175</v>
       </c>
       <c r="I51" t="n">
-        <v>1.2556</v>
+        <v>1.6795</v>
       </c>
     </row>
     <row r="52">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8781</v>
+        <v>0.5362</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3832</v>
+        <v>0.7473</v>
       </c>
       <c r="F52" t="n">
-        <v>2.8636</v>
+        <v>1.4684</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2404</v>
+        <v>0.3334</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8708</v>
+        <v>0.8157</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1473</v>
+        <v>1.2248</v>
       </c>
     </row>
     <row r="53">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.9594</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2212</v>
+        <v>0.7362</v>
       </c>
       <c r="F53" t="n">
-        <v>4.9608</v>
+        <v>1.4905</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1558</v>
+        <v>0.2555</v>
       </c>
       <c r="H53" t="n">
-        <v>0.918</v>
+        <v>0.8621</v>
       </c>
       <c r="I53" t="n">
-        <v>1.0883</v>
+        <v>1.1589</v>
       </c>
     </row>
     <row r="54">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.4948</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.7799</v>
       </c>
       <c r="F54" t="n">
-        <v>1828.8956</v>
+        <v>1.407</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2905</v>
+        <v>0.3148</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8415</v>
+        <v>0.827</v>
       </c>
       <c r="I54" t="n">
-        <v>1.1873</v>
+        <v>1.2081</v>
       </c>
     </row>
     <row r="55">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.2477</v>
+        <v>0.1254</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9518</v>
+        <v>1.0262</v>
       </c>
       <c r="F55" t="n">
-        <v>1.1529</v>
+        <v>1.0693</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2311</v>
+        <v>0.1651</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8761</v>
+        <v>0.9129</v>
       </c>
       <c r="I55" t="n">
-        <v>1.1404</v>
+        <v>1.0944</v>
       </c>
     </row>
     <row r="56">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.3439</v>
+        <v>0.459</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8888</v>
+        <v>0.8071</v>
       </c>
       <c r="F56" t="n">
-        <v>1.2346</v>
+        <v>1.3596</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2283</v>
+        <v>0.1015</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8777</v>
+        <v>0.947</v>
       </c>
       <c r="I56" t="n">
-        <v>1.1383</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="57">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9169</v>
+        <v>0.6997</v>
       </c>
       <c r="E57" t="n">
-        <v>1.3445</v>
+        <v>2.5557</v>
       </c>
       <c r="F57" t="n">
-        <v>3.4686</v>
+        <v>1.8247</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6306</v>
+        <v>0.6011</v>
       </c>
       <c r="H57" t="n">
-        <v>2.8231</v>
+        <v>2.9336</v>
       </c>
       <c r="I57" t="n">
-        <v>1.6453</v>
+        <v>1.5833</v>
       </c>
     </row>
     <row r="58">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9819</v>
+        <v>0.7064</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6274</v>
+        <v>2.5269</v>
       </c>
       <c r="F58" t="n">
-        <v>7.433</v>
+        <v>1.8455</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6403</v>
+        <v>0.5766</v>
       </c>
       <c r="H58" t="n">
-        <v>2.7859</v>
+        <v>3.0223</v>
       </c>
       <c r="I58" t="n">
-        <v>1.6672</v>
+        <v>1.5368</v>
       </c>
     </row>
     <row r="59">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.6713</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0005999999999999999</v>
+        <v>2.6738</v>
       </c>
       <c r="F59" t="n">
-        <v>7772.485</v>
+        <v>1.7441</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6621</v>
+        <v>0.6592</v>
       </c>
       <c r="H59" t="n">
-        <v>2.6999</v>
+        <v>2.7114</v>
       </c>
       <c r="I59" t="n">
-        <v>1.7203</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="60">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.4921</v>
+        <v>0.1362</v>
       </c>
       <c r="E60" t="n">
-        <v>3.3236</v>
+        <v>4.3342</v>
       </c>
       <c r="F60" t="n">
-        <v>1.4031</v>
+        <v>1.076</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4742</v>
+        <v>0.1274</v>
       </c>
       <c r="H60" t="n">
-        <v>3.3681</v>
+        <v>4.3387</v>
       </c>
       <c r="I60" t="n">
-        <v>1.379</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="61">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.2193</v>
+        <v>0.6315</v>
       </c>
       <c r="E61" t="n">
-        <v>4.1206</v>
+        <v>2.8308</v>
       </c>
       <c r="F61" t="n">
-        <v>1.1318</v>
+        <v>1.6474</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1427</v>
+        <v>0.5819</v>
       </c>
       <c r="H61" t="n">
-        <v>4.3005</v>
+        <v>3.0032</v>
       </c>
       <c r="I61" t="n">
-        <v>1.08</v>
+        <v>1.5466</v>
       </c>
     </row>
     <row r="62">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.8887</v>
+        <v>0.5637</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0648</v>
+        <v>0.1283</v>
       </c>
       <c r="F62" t="n">
-        <v>2.9982</v>
+        <v>1.5143</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2567</v>
+        <v>0.3001</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1625</v>
+        <v>0.1577</v>
       </c>
       <c r="I62" t="n">
-        <v>1.1602</v>
+        <v>1.1955</v>
       </c>
     </row>
     <row r="63">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.9671</v>
+        <v>0.5462</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0353</v>
+        <v>0.1309</v>
       </c>
       <c r="F63" t="n">
-        <v>5.5039</v>
+        <v>1.4842</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1262</v>
+        <v>0.3261</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1762</v>
+        <v>0.1548</v>
       </c>
       <c r="I63" t="n">
-        <v>1.07</v>
+        <v>1.2179</v>
       </c>
     </row>
     <row r="64">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2667,22 +2667,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.5265</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.1337</v>
       </c>
       <c r="F64" t="n">
-        <v>323.8109</v>
+        <v>1.4532</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1102</v>
+        <v>0.3126</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1778</v>
+        <v>0.1563</v>
       </c>
       <c r="I64" t="n">
-        <v>1.0604</v>
+        <v>1.2062</v>
       </c>
     </row>
     <row r="65">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.1561</v>
+        <v>0.0698</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1785</v>
+        <v>0.1874</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0884</v>
+        <v>1.0367</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1816</v>
+        <v>-0.06569999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1706</v>
+        <v>0.1946</v>
       </c>
       <c r="I65" t="n">
-        <v>1.1051</v>
+        <v>0.9688</v>
       </c>
     </row>
     <row r="66">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2737,22 +2737,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.5551</v>
+        <v>0.5782</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1296</v>
+        <v>0.1262</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4991</v>
+        <v>1.5395</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1901</v>
+        <v>0.0359</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1697</v>
+        <v>0.1851</v>
       </c>
       <c r="I66" t="n">
-        <v>1.111</v>
+        <v>1.0185</v>
       </c>
     </row>
     <row r="67">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.912</v>
+        <v>0.7005</v>
       </c>
       <c r="E67" t="n">
-        <v>1.3979</v>
+        <v>2.5788</v>
       </c>
       <c r="F67" t="n">
-        <v>3.3709</v>
+        <v>1.8273</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6747</v>
+        <v>0.5964</v>
       </c>
       <c r="H67" t="n">
-        <v>2.677</v>
+        <v>2.9817</v>
       </c>
       <c r="I67" t="n">
-        <v>1.7532</v>
+        <v>1.574</v>
       </c>
     </row>
     <row r="68">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.9819</v>
+        <v>0.7064</v>
       </c>
       <c r="E68" t="n">
-        <v>0.634</v>
+        <v>2.5532</v>
       </c>
       <c r="F68" t="n">
-        <v>7.4325</v>
+        <v>1.8456</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.5807</v>
       </c>
       <c r="H68" t="n">
-        <v>2.8528</v>
+        <v>3.0392</v>
       </c>
       <c r="I68" t="n">
-        <v>1.6451</v>
+        <v>1.5442</v>
       </c>
     </row>
     <row r="69">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2842,22 +2842,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.6713</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0005999999999999999</v>
+        <v>2.7018</v>
       </c>
       <c r="F69" t="n">
-        <v>7853.6362</v>
+        <v>1.7441</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6621</v>
+        <v>0.6592</v>
       </c>
       <c r="H69" t="n">
-        <v>2.7281</v>
+        <v>2.7397</v>
       </c>
       <c r="I69" t="n">
-        <v>1.7203</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="70">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.4921</v>
+        <v>0.1362</v>
       </c>
       <c r="E70" t="n">
-        <v>3.3583</v>
+        <v>4.3795</v>
       </c>
       <c r="F70" t="n">
-        <v>1.4031</v>
+        <v>1.076</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4742</v>
+        <v>0.1274</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4033</v>
+        <v>4.384</v>
       </c>
       <c r="I70" t="n">
-        <v>1.379</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="71">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2912,22 +2912,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.2177</v>
+        <v>0.6313</v>
       </c>
       <c r="E71" t="n">
-        <v>4.1679</v>
+        <v>2.8611</v>
       </c>
       <c r="F71" t="n">
-        <v>1.1306</v>
+        <v>1.647</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1413</v>
+        <v>0.5821</v>
       </c>
       <c r="H71" t="n">
-        <v>4.3491</v>
+        <v>3.0339</v>
       </c>
       <c r="I71" t="n">
-        <v>1.0791</v>
+        <v>1.5469</v>
       </c>
     </row>
     <row r="72">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.925</v>
+        <v>0.7010999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>2.2255</v>
+        <v>4.4412</v>
       </c>
       <c r="F72" t="n">
-        <v>3.6503</v>
+        <v>1.8292</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6598000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="H72" t="n">
-        <v>4.7192</v>
+        <v>5.0564</v>
       </c>
       <c r="I72" t="n">
-        <v>1.7145</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="73">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2982,22 +2982,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.9819</v>
+        <v>0.7064</v>
       </c>
       <c r="E73" t="n">
-        <v>1.093</v>
+        <v>4.4018</v>
       </c>
       <c r="F73" t="n">
-        <v>7.4326</v>
+        <v>1.8456</v>
       </c>
       <c r="G73" t="n">
-        <v>0.642</v>
+        <v>0.5815</v>
       </c>
       <c r="H73" t="n">
-        <v>4.8415</v>
+        <v>5.2341</v>
       </c>
       <c r="I73" t="n">
-        <v>1.6712</v>
+        <v>1.5459</v>
       </c>
     </row>
     <row r="74">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3017,22 +3017,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.6713</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0007</v>
+        <v>4.6578</v>
       </c>
       <c r="F74" t="n">
-        <v>11605.4305</v>
+        <v>1.7441</v>
       </c>
       <c r="G74" t="n">
-        <v>0.662</v>
+        <v>0.6592</v>
       </c>
       <c r="H74" t="n">
-        <v>4.7041</v>
+        <v>4.7233</v>
       </c>
       <c r="I74" t="n">
-        <v>1.72</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="75">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3052,22 +3052,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.4921</v>
+        <v>0.1362</v>
       </c>
       <c r="E75" t="n">
-        <v>5.7897</v>
+        <v>7.5502</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4031</v>
+        <v>1.076</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4742</v>
+        <v>0.1274</v>
       </c>
       <c r="H75" t="n">
-        <v>5.8672</v>
+        <v>7.5581</v>
       </c>
       <c r="I75" t="n">
-        <v>1.379</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="76">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3087,22 +3087,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.135</v>
+        <v>0.622</v>
       </c>
       <c r="E76" t="n">
-        <v>7.5554</v>
+        <v>4.9946</v>
       </c>
       <c r="F76" t="n">
-        <v>1.0752</v>
+        <v>1.6265</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0726</v>
+        <v>0.582</v>
       </c>
       <c r="H76" t="n">
-        <v>7.7921</v>
+        <v>5.231</v>
       </c>
       <c r="I76" t="n">
-        <v>1.0384</v>
+        <v>1.5468</v>
       </c>
     </row>
     <row r="77">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3122,22 +3122,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.8971</v>
+        <v>0.5617</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3521</v>
+        <v>0.7265</v>
       </c>
       <c r="F77" t="n">
-        <v>3.1166</v>
+        <v>1.5104</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2778</v>
+        <v>0.3083</v>
       </c>
       <c r="H77" t="n">
-        <v>0.849</v>
+        <v>0.8309</v>
       </c>
       <c r="I77" t="n">
-        <v>1.1768</v>
+        <v>1.2024</v>
       </c>
     </row>
     <row r="78">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3157,22 +3157,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9603</v>
+        <v>0.5883</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2187</v>
+        <v>0.7040999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>5.0175</v>
+        <v>1.5585</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3151</v>
+        <v>0.2778</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8268</v>
+        <v>0.849</v>
       </c>
       <c r="I78" t="n">
-        <v>1.2084</v>
+        <v>1.1768</v>
       </c>
     </row>
     <row r="79">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3192,22 +3192,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0.5628</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0005</v>
+        <v>0.7256</v>
       </c>
       <c r="F79" t="n">
-        <v>2194.6747</v>
+        <v>1.5123</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2608</v>
+        <v>0.3051</v>
       </c>
       <c r="H79" t="n">
-        <v>0.859</v>
+        <v>0.8328</v>
       </c>
       <c r="I79" t="n">
-        <v>1.1631</v>
+        <v>1.1997</v>
       </c>
     </row>
     <row r="80">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3227,22 +3227,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.2388</v>
+        <v>0.1428</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9574</v>
+        <v>1.016</v>
       </c>
       <c r="F80" t="n">
-        <v>1.1462</v>
+        <v>1.0801</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2629</v>
+        <v>0.2006</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8577</v>
+        <v>0.8932</v>
       </c>
       <c r="I80" t="n">
-        <v>1.1648</v>
+        <v>1.1185</v>
       </c>
     </row>
     <row r="81">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>易氧化有机碳(mg/g)</t>
+          <t>EOC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3262,22 +3262,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.3675</v>
+        <v>0.4824</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8727</v>
+        <v>0.7894</v>
       </c>
       <c r="F81" t="n">
-        <v>1.2574</v>
+        <v>1.3901</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2535</v>
+        <v>0.0505</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8632</v>
+        <v>0.9735</v>
       </c>
       <c r="I81" t="n">
-        <v>1.1574</v>
+        <v>1.0263</v>
       </c>
     </row>
     <row r="82">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.9131</v>
+        <v>0.6985</v>
       </c>
       <c r="E82" t="n">
-        <v>1.3746</v>
+        <v>2.5608</v>
       </c>
       <c r="F82" t="n">
-        <v>3.3926</v>
+        <v>1.8211</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7019</v>
+        <v>0.6344</v>
       </c>
       <c r="H82" t="n">
-        <v>2.536</v>
+        <v>2.8083</v>
       </c>
       <c r="I82" t="n">
-        <v>1.8315</v>
+        <v>1.6539</v>
       </c>
     </row>
     <row r="83">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3332,22 +3332,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.9818</v>
+        <v>0.7411</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6299</v>
+        <v>2.373</v>
       </c>
       <c r="F83" t="n">
-        <v>7.4035</v>
+        <v>1.9652</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6885</v>
+        <v>0.6623</v>
       </c>
       <c r="H83" t="n">
-        <v>2.5922</v>
+        <v>2.6992</v>
       </c>
       <c r="I83" t="n">
-        <v>1.7918</v>
+        <v>1.7208</v>
       </c>
     </row>
     <row r="84">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0.7033</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0005999999999999999</v>
+        <v>2.5404</v>
       </c>
       <c r="F84" t="n">
-        <v>7772.485</v>
+        <v>1.8357</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6414</v>
+        <v>0.6588000000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>2.7815</v>
+        <v>2.7131</v>
       </c>
       <c r="I84" t="n">
-        <v>1.6699</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="85">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3402,22 +3402,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.4569</v>
+        <v>0.1539</v>
       </c>
       <c r="E85" t="n">
-        <v>3.4368</v>
+        <v>4.2898</v>
       </c>
       <c r="F85" t="n">
-        <v>1.3569</v>
+        <v>1.0871</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4897</v>
+        <v>0.1602</v>
       </c>
       <c r="H85" t="n">
-        <v>3.318</v>
+        <v>4.2566</v>
       </c>
       <c r="I85" t="n">
-        <v>1.3999</v>
+        <v>1.0912</v>
       </c>
     </row>
     <row r="86">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>有机碳含量(g/kg)</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3437,22 +3437,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.2347</v>
+        <v>0.6411</v>
       </c>
       <c r="E86" t="n">
-        <v>4.0796</v>
+        <v>2.7937</v>
       </c>
       <c r="F86" t="n">
-        <v>1.1431</v>
+        <v>1.6693</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1736</v>
+        <v>0.6158</v>
       </c>
       <c r="H86" t="n">
-        <v>4.2224</v>
+        <v>2.8789</v>
       </c>
       <c r="I86" t="n">
-        <v>1.1</v>
+        <v>1.6134</v>
       </c>
     </row>
     <row r="87">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3472,22 +3472,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.8984</v>
+        <v>0.5765</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0619</v>
+        <v>0.1264</v>
       </c>
       <c r="F87" t="n">
-        <v>3.1387</v>
+        <v>1.5371</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2147</v>
+        <v>0.2743</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1671</v>
+        <v>0.1606</v>
       </c>
       <c r="I87" t="n">
-        <v>1.1283</v>
+        <v>1.1739</v>
       </c>
     </row>
     <row r="88">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3507,22 +3507,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.9667</v>
+        <v>0.5753</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0354</v>
+        <v>0.1266</v>
       </c>
       <c r="F88" t="n">
-        <v>5.4883</v>
+        <v>1.5346</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1592</v>
+        <v>0.2749</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1729</v>
+        <v>0.1605</v>
       </c>
       <c r="I88" t="n">
-        <v>1.0904</v>
+        <v>1.1746</v>
       </c>
     </row>
     <row r="89">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3542,22 +3542,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.5547</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005</v>
+        <v>0.1296</v>
       </c>
       <c r="F89" t="n">
-        <v>388.5731</v>
+        <v>1.4991</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2081</v>
+        <v>0.2857</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1678</v>
+        <v>0.1593</v>
       </c>
       <c r="I89" t="n">
-        <v>1.1235</v>
+        <v>1.1835</v>
       </c>
     </row>
     <row r="90">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3577,22 +3577,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.1894</v>
+        <v>0.0809</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1749</v>
+        <v>0.1863</v>
       </c>
       <c r="F90" t="n">
-        <v>1.1108</v>
+        <v>1.0429</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1926</v>
+        <v>-0.0701</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1694</v>
+        <v>0.195</v>
       </c>
       <c r="I90" t="n">
-        <v>1.1129</v>
+        <v>0.9668</v>
       </c>
     </row>
     <row r="91">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>水溶性有机碳(mg/g)</t>
+          <t>WOC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3612,22 +3612,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.6234</v>
+        <v>0.5933</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1192</v>
+        <v>0.1239</v>
       </c>
       <c r="F91" t="n">
-        <v>1.6299</v>
+        <v>1.5681</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1906</v>
+        <v>-0.0703</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1696</v>
+        <v>0.195</v>
       </c>
       <c r="I91" t="n">
-        <v>1.1116</v>
+        <v>0.9668</v>
       </c>
     </row>
     <row r="92">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3647,22 +3647,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.9195</v>
+        <v>0.7006</v>
       </c>
       <c r="E92" t="n">
-        <v>1.337</v>
+        <v>2.5785</v>
       </c>
       <c r="F92" t="n">
-        <v>3.5244</v>
+        <v>1.8275</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7091</v>
+        <v>0.6294</v>
       </c>
       <c r="H92" t="n">
-        <v>2.5313</v>
+        <v>2.857</v>
       </c>
       <c r="I92" t="n">
-        <v>1.8541</v>
+        <v>1.6427</v>
       </c>
     </row>
     <row r="93">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3682,22 +3682,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.9818</v>
+        <v>0.7411</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6365</v>
+        <v>2.3977</v>
       </c>
       <c r="F93" t="n">
-        <v>7.4033</v>
+        <v>1.9653</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7371</v>
+        <v>0.6627999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2.4063</v>
+        <v>2.7253</v>
       </c>
       <c r="I93" t="n">
-        <v>1.9504</v>
+        <v>1.7221</v>
       </c>
     </row>
     <row r="94">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3717,22 +3717,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0.7033</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0005999999999999999</v>
+        <v>2.5669</v>
       </c>
       <c r="F94" t="n">
-        <v>7853.6362</v>
+        <v>1.8357</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6413</v>
+        <v>0.6588000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2.8107</v>
+        <v>2.7414</v>
       </c>
       <c r="I94" t="n">
-        <v>1.6698</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="95">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3752,22 +3752,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.4569</v>
+        <v>0.1539</v>
       </c>
       <c r="E95" t="n">
-        <v>3.4727</v>
+        <v>4.3346</v>
       </c>
       <c r="F95" t="n">
-        <v>1.3569</v>
+        <v>1.0871</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4897</v>
+        <v>0.1602</v>
       </c>
       <c r="H95" t="n">
-        <v>3.3527</v>
+        <v>4.301</v>
       </c>
       <c r="I95" t="n">
-        <v>1.3998</v>
+        <v>1.0912</v>
       </c>
     </row>
     <row r="96">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>全碳(g/kg)</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3787,22 +3787,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.2329</v>
+        <v>0.6411</v>
       </c>
       <c r="E96" t="n">
-        <v>4.1272</v>
+        <v>2.8231</v>
       </c>
       <c r="F96" t="n">
-        <v>1.1417</v>
+        <v>1.6692</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1721</v>
+        <v>0.6162</v>
       </c>
       <c r="H96" t="n">
-        <v>4.2702</v>
+        <v>2.9075</v>
       </c>
       <c r="I96" t="n">
-        <v>1.0991</v>
+        <v>1.6142</v>
       </c>
     </row>
     <row r="97">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3822,22 +3822,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.9175</v>
+        <v>0.6956</v>
       </c>
       <c r="E97" t="n">
-        <v>2.3337</v>
+        <v>4.4823</v>
       </c>
       <c r="F97" t="n">
-        <v>3.4811</v>
+        <v>1.8124</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6828</v>
+        <v>0.6303</v>
       </c>
       <c r="H97" t="n">
-        <v>4.5568</v>
+        <v>4.92</v>
       </c>
       <c r="I97" t="n">
-        <v>1.7756</v>
+        <v>1.6445</v>
       </c>
     </row>
     <row r="98">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3857,22 +3857,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9818</v>
+        <v>0.7411</v>
       </c>
       <c r="E98" t="n">
-        <v>1.0974</v>
+        <v>4.1337</v>
       </c>
       <c r="F98" t="n">
-        <v>7.4028</v>
+        <v>1.9653</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7239</v>
+        <v>0.6623</v>
       </c>
       <c r="H98" t="n">
-        <v>4.2513</v>
+        <v>4.702</v>
       </c>
       <c r="I98" t="n">
-        <v>1.9032</v>
+        <v>1.7208</v>
       </c>
     </row>
     <row r="99">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3892,22 +3892,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.7033</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0005999999999999999</v>
+        <v>4.4254</v>
       </c>
       <c r="F99" t="n">
-        <v>13539.6689</v>
+        <v>1.8357</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6415</v>
+        <v>0.6588000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>4.8446</v>
+        <v>4.7262</v>
       </c>
       <c r="I99" t="n">
-        <v>1.6701</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="100">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3927,22 +3927,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.4569</v>
+        <v>0.1539</v>
       </c>
       <c r="E100" t="n">
-        <v>5.9869</v>
+        <v>7.4728</v>
       </c>
       <c r="F100" t="n">
-        <v>1.3569</v>
+        <v>1.0871</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4897</v>
+        <v>0.1602</v>
       </c>
       <c r="H100" t="n">
-        <v>5.78</v>
+        <v>7.415</v>
       </c>
       <c r="I100" t="n">
-        <v>1.3999</v>
+        <v>1.0912</v>
       </c>
     </row>
     <row r="101">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>有机质(g/kg)</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3962,22 +3962,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.1497</v>
+        <v>0.6317</v>
       </c>
       <c r="E101" t="n">
-        <v>7.491</v>
+        <v>4.9299</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0845</v>
+        <v>1.6479</v>
       </c>
       <c r="G101" t="n">
-        <v>0.09959999999999999</v>
+        <v>0.6237</v>
       </c>
       <c r="H101" t="n">
-        <v>7.6777</v>
+        <v>4.9631</v>
       </c>
       <c r="I101" t="n">
-        <v>1.0539</v>
+        <v>1.6303</v>
       </c>
     </row>
   </sheetData>

--- a/ML/result_summary.xlsx
+++ b/ML/result_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,28 +497,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5236</v>
+        <v>0.3349</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7574</v>
+        <v>0.8949</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4488</v>
+        <v>1.2262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3073</v>
+        <v>0.0554</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8315</v>
+        <v>0.971</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2015</v>
+        <v>1.0289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -532,28 +532,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5299</v>
+        <v>0.4034</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7523</v>
+        <v>0.8476</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4586</v>
+        <v>1.2946</v>
       </c>
       <c r="G3" t="n">
-        <v>0.322</v>
+        <v>0.0117</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8226</v>
+        <v>0.9932</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2145</v>
+        <v>1.0059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -567,28 +567,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4943</v>
+        <v>0.3701</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7803</v>
+        <v>0.8709</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4063</v>
+        <v>1.26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3369</v>
+        <v>0.0094</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8136</v>
+        <v>0.9944</v>
       </c>
       <c r="I4" t="n">
-        <v>1.228</v>
+        <v>1.0047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -602,28 +602,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1911</v>
+        <v>0.0197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.987</v>
+        <v>1.0865</v>
       </c>
       <c r="F5" t="n">
-        <v>1.1118</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2607</v>
+        <v>0.0404</v>
       </c>
       <c r="H5" t="n">
-        <v>0.859</v>
+        <v>0.9787</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1631</v>
+        <v>1.0208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5337</v>
+        <v>0.2097</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7494</v>
+        <v>0.9755</v>
       </c>
       <c r="F6" t="n">
-        <v>1.4643</v>
+        <v>1.1249</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2262</v>
+        <v>-0.1652</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8789</v>
+        <v>1.0785</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1367</v>
+        <v>0.9264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -672,28 +672,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6933</v>
+        <v>0.3624</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5827</v>
+        <v>3.7238</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8057</v>
+        <v>1.2523</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6059</v>
+        <v>-0.0282</v>
       </c>
       <c r="H7" t="n">
-        <v>2.916</v>
+        <v>4.7097</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5928</v>
+        <v>0.9862</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -707,28 +707,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7060999999999999</v>
+        <v>0.445</v>
       </c>
       <c r="E8" t="n">
-        <v>2.528</v>
+        <v>3.4743</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8447</v>
+        <v>1.3423</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6365</v>
+        <v>0.0116</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8005</v>
+        <v>4.6177</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6585</v>
+        <v>1.0059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.658</v>
+        <v>0.4304</v>
       </c>
       <c r="E9" t="n">
-        <v>2.7274</v>
+        <v>3.5195</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7099</v>
+        <v>1.325</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6715</v>
+        <v>0.0304</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6621</v>
+        <v>4.5735</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7448</v>
+        <v>1.0156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -777,28 +777,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2144</v>
+        <v>0.0379</v>
       </c>
       <c r="E10" t="n">
-        <v>4.1334</v>
+        <v>4.5743</v>
       </c>
       <c r="F10" t="n">
-        <v>1.1282</v>
+        <v>1.0195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0163</v>
+        <v>-0.0129</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6067</v>
+        <v>4.6746</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0083</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -812,28 +812,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6395999999999999</v>
+        <v>0.1629</v>
       </c>
       <c r="E11" t="n">
-        <v>2.7996</v>
+        <v>4.2668</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6658</v>
+        <v>1.093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5629</v>
+        <v>-0.1529</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0707</v>
+        <v>4.9872</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5126</v>
+        <v>0.9313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,28 +847,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5803</v>
+        <v>0.3178</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1259</v>
+        <v>0.1605</v>
       </c>
       <c r="F12" t="n">
-        <v>1.5432</v>
+        <v>1.2105</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2912</v>
+        <v>-0.0437</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1587</v>
+        <v>0.1926</v>
       </c>
       <c r="I12" t="n">
-        <v>1.188</v>
+        <v>0.9789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -882,28 +882,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5455</v>
+        <v>0.3383</v>
       </c>
       <c r="E13" t="n">
-        <v>0.131</v>
+        <v>0.158</v>
       </c>
       <c r="F13" t="n">
-        <v>1.4831</v>
+        <v>1.2297</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3228</v>
+        <v>-0.1227</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1551</v>
+        <v>0.1998</v>
       </c>
       <c r="I13" t="n">
-        <v>1.2155</v>
+        <v>0.9436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -917,28 +917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5393</v>
+        <v>0.3276</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1319</v>
+        <v>0.1593</v>
       </c>
       <c r="F14" t="n">
-        <v>1.473</v>
+        <v>1.2196</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3001</v>
+        <v>-0.0506</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1577</v>
+        <v>0.1932</v>
       </c>
       <c r="I14" t="n">
-        <v>1.1955</v>
+        <v>0.9758</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1627</v>
+        <v>0.0347</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1778</v>
+        <v>0.1909</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0927</v>
+        <v>1.0177</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1818</v>
+        <v>-0.0682</v>
       </c>
       <c r="H15" t="n">
-        <v>0.205</v>
+        <v>0.1948</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9197</v>
+        <v>0.9678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -987,28 +987,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6307</v>
+        <v>0.2469</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1181</v>
+        <v>0.1686</v>
       </c>
       <c r="F16" t="n">
-        <v>1.6451</v>
+        <v>1.1524</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1064</v>
+        <v>-0.0298</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1983</v>
+        <v>0.1913</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9507</v>
+        <v>0.9855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1022,28 +1022,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6934</v>
+        <v>0.3618</v>
       </c>
       <c r="E17" t="n">
-        <v>2.6093</v>
+        <v>3.7643</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8059</v>
+        <v>1.2518</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6032</v>
+        <v>-0.0208</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9563</v>
+        <v>4.7419</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5875</v>
+        <v>0.9897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1057,28 +1057,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7060999999999999</v>
+        <v>0.445</v>
       </c>
       <c r="E18" t="n">
-        <v>2.5544</v>
+        <v>3.5106</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8447</v>
+        <v>1.3423</v>
       </c>
       <c r="G18" t="n">
-        <v>0.63</v>
+        <v>0.0122</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8548</v>
+        <v>4.6644</v>
       </c>
       <c r="I18" t="n">
-        <v>1.644</v>
+        <v>1.0062</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.658</v>
+        <v>0.4304</v>
       </c>
       <c r="E19" t="n">
-        <v>2.7558</v>
+        <v>3.5562</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7099</v>
+        <v>1.3251</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6715</v>
+        <v>0.0304</v>
       </c>
       <c r="H19" t="n">
-        <v>2.6899</v>
+        <v>4.6213</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7448</v>
+        <v>1.0156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1127,28 +1127,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2144</v>
+        <v>0.0379</v>
       </c>
       <c r="E20" t="n">
-        <v>4.1766</v>
+        <v>4.622</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1282</v>
+        <v>1.0195</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0163</v>
+        <v>-0.0129</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6548</v>
+        <v>4.7234</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0083</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1162,28 +1162,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6392</v>
+        <v>0.1625</v>
       </c>
       <c r="E21" t="n">
-        <v>2.8305</v>
+        <v>4.3124</v>
       </c>
       <c r="F21" t="n">
-        <v>1.6648</v>
+        <v>1.0927</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5631</v>
+        <v>-0.1533</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1021</v>
+        <v>5.0402</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5129</v>
+        <v>0.9312</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1197,28 +1197,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6916</v>
+        <v>0.3637</v>
       </c>
       <c r="E22" t="n">
-        <v>4.5116</v>
+        <v>6.48</v>
       </c>
       <c r="F22" t="n">
-        <v>1.8006</v>
+        <v>1.2537</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5995</v>
+        <v>-0.0194</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1207</v>
+        <v>8.1691</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5801</v>
+        <v>0.9905</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1232,28 +1232,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7060999999999999</v>
+        <v>0.445</v>
       </c>
       <c r="E23" t="n">
-        <v>4.4037</v>
+        <v>6.0522</v>
       </c>
       <c r="F23" t="n">
-        <v>1.8448</v>
+        <v>1.3423</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6327</v>
+        <v>0.012</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9034</v>
+        <v>8.0425</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6501</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1267,28 +1267,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.658</v>
+        <v>0.4304</v>
       </c>
       <c r="E24" t="n">
-        <v>4.7511</v>
+        <v>6.131</v>
       </c>
       <c r="F24" t="n">
-        <v>1.7099</v>
+        <v>1.325</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6715</v>
+        <v>0.0304</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6373</v>
+        <v>7.9671</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7448</v>
+        <v>1.0156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1302,28 +1302,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2144</v>
+        <v>0.0379</v>
       </c>
       <c r="E25" t="n">
-        <v>7.2005</v>
+        <v>7.9684</v>
       </c>
       <c r="F25" t="n">
-        <v>1.1282</v>
+        <v>1.0195</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0163</v>
+        <v>-0.0129</v>
       </c>
       <c r="H25" t="n">
-        <v>8.024800000000001</v>
+        <v>8.1432</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0083</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SNSB</t>
+          <t>SBSD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1337,28 +1337,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.62</v>
+        <v>0.1475</v>
       </c>
       <c r="E26" t="n">
-        <v>5.008</v>
+        <v>7.5008</v>
       </c>
       <c r="F26" t="n">
-        <v>1.6222</v>
+        <v>1.0831</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5684</v>
+        <v>-0.1602</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3156</v>
+        <v>8.715299999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5222</v>
+        <v>0.9284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1372,28 +1372,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.5629</v>
+        <v>0.5231</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7255</v>
+        <v>0.7578</v>
       </c>
       <c r="F27" t="n">
-        <v>1.5125</v>
+        <v>1.4481</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2917</v>
+        <v>0.307</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8408</v>
+        <v>0.8317</v>
       </c>
       <c r="I27" t="n">
-        <v>1.1882</v>
+        <v>1.2012</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1407,28 +1407,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.572</v>
+        <v>0.5299</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7179</v>
+        <v>0.7523</v>
       </c>
       <c r="F28" t="n">
-        <v>1.5285</v>
+        <v>1.4586</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3248</v>
+        <v>0.322</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8209</v>
+        <v>0.8226</v>
       </c>
       <c r="I28" t="n">
-        <v>1.217</v>
+        <v>1.2145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1442,28 +1442,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5563</v>
+        <v>0.4943</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7309</v>
+        <v>0.7803</v>
       </c>
       <c r="F29" t="n">
-        <v>1.5014</v>
+        <v>1.4063</v>
       </c>
       <c r="G29" t="n">
-        <v>0.32</v>
+        <v>0.3369</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8238</v>
+        <v>0.8136</v>
       </c>
       <c r="I29" t="n">
-        <v>1.2128</v>
+        <v>1.228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2164</v>
+        <v>0.1911</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9714</v>
+        <v>0.987</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1296</v>
+        <v>1.1118</v>
       </c>
       <c r="G30" t="n">
-        <v>0.283</v>
+        <v>0.2607</v>
       </c>
       <c r="H30" t="n">
-        <v>0.846</v>
+        <v>0.859</v>
       </c>
       <c r="I30" t="n">
-        <v>1.1809</v>
+        <v>1.1631</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1512,28 +1512,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5266999999999999</v>
+        <v>0.5337</v>
       </c>
       <c r="E31" t="n">
-        <v>0.755</v>
+        <v>0.7494</v>
       </c>
       <c r="F31" t="n">
-        <v>1.4534</v>
+        <v>1.4643</v>
       </c>
       <c r="G31" t="n">
-        <v>0.233</v>
+        <v>0.2262</v>
       </c>
       <c r="H31" t="n">
-        <v>0.875</v>
+        <v>0.8789</v>
       </c>
       <c r="I31" t="n">
-        <v>1.1418</v>
+        <v>1.1367</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1547,28 +1547,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6915</v>
+        <v>0.6933</v>
       </c>
       <c r="E32" t="n">
-        <v>2.5902</v>
+        <v>2.5828</v>
       </c>
       <c r="F32" t="n">
-        <v>1.8004</v>
+        <v>1.8056</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6735</v>
+        <v>0.6062</v>
       </c>
       <c r="H32" t="n">
-        <v>2.6542</v>
+        <v>2.9147</v>
       </c>
       <c r="I32" t="n">
-        <v>1.75</v>
+        <v>1.5936</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1582,28 +1582,28 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.7402</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>2.3768</v>
+        <v>2.528</v>
       </c>
       <c r="F33" t="n">
-        <v>1.9621</v>
+        <v>1.8447</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6742</v>
+        <v>0.6365</v>
       </c>
       <c r="H33" t="n">
-        <v>2.6513</v>
+        <v>2.8005</v>
       </c>
       <c r="I33" t="n">
-        <v>1.7519</v>
+        <v>1.6585</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1617,28 +1617,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.695</v>
+        <v>0.658</v>
       </c>
       <c r="E34" t="n">
-        <v>2.5754</v>
+        <v>2.7274</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8108</v>
+        <v>1.7099</v>
       </c>
       <c r="G34" t="n">
-        <v>0.67</v>
+        <v>0.6715</v>
       </c>
       <c r="H34" t="n">
-        <v>2.6684</v>
+        <v>2.6621</v>
       </c>
       <c r="I34" t="n">
-        <v>1.7406</v>
+        <v>1.7448</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1652,28 +1652,28 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.237</v>
+        <v>0.2144</v>
       </c>
       <c r="E35" t="n">
-        <v>4.0736</v>
+        <v>4.1334</v>
       </c>
       <c r="F35" t="n">
-        <v>1.1448</v>
+        <v>1.1282</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0163</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4781</v>
+        <v>4.6067</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0372</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1687,28 +1687,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6363</v>
+        <v>0.6395999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>2.8124</v>
+        <v>2.7996</v>
       </c>
       <c r="F36" t="n">
-        <v>1.6582</v>
+        <v>1.6658</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6546</v>
+        <v>0.5629</v>
       </c>
       <c r="H36" t="n">
-        <v>2.7296</v>
+        <v>3.0707</v>
       </c>
       <c r="I36" t="n">
-        <v>1.7016</v>
+        <v>1.5126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1722,28 +1722,28 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5967</v>
+        <v>0.5802</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1234</v>
+        <v>0.1259</v>
       </c>
       <c r="F37" t="n">
-        <v>1.5744</v>
+        <v>1.5432</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2733</v>
+        <v>0.2912</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1607</v>
+        <v>0.1587</v>
       </c>
       <c r="I37" t="n">
-        <v>1.1732</v>
+        <v>1.188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1757,28 +1757,28 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5847</v>
+        <v>0.5455</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1252</v>
+        <v>0.131</v>
       </c>
       <c r="F38" t="n">
-        <v>1.5518</v>
+        <v>1.4831</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3003</v>
+        <v>0.3228</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1577</v>
+        <v>0.1551</v>
       </c>
       <c r="I38" t="n">
-        <v>1.1955</v>
+        <v>1.2155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1792,28 +1792,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5666</v>
+        <v>0.5393</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1279</v>
+        <v>0.1319</v>
       </c>
       <c r="F39" t="n">
-        <v>1.5191</v>
+        <v>1.473</v>
       </c>
       <c r="G39" t="n">
-        <v>0.295</v>
+        <v>0.3001</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1583</v>
+        <v>0.1577</v>
       </c>
       <c r="I39" t="n">
-        <v>1.191</v>
+        <v>1.1955</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1827,28 +1827,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1842</v>
+        <v>0.1627</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1755</v>
+        <v>0.1778</v>
       </c>
       <c r="F40" t="n">
-        <v>1.107</v>
+        <v>1.0927</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1976</v>
+        <v>-0.1818</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2063</v>
+        <v>0.205</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9139</v>
+        <v>0.9197</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1862,28 +1862,28 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6889</v>
+        <v>0.6307</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1084</v>
+        <v>0.1181</v>
       </c>
       <c r="F41" t="n">
-        <v>1.7923</v>
+        <v>1.6451</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.3018</v>
+        <v>-0.1064</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2151</v>
+        <v>0.1983</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8764999999999999</v>
+        <v>0.9507</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1897,28 +1897,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6902</v>
+        <v>0.6947</v>
       </c>
       <c r="E42" t="n">
-        <v>2.6227</v>
+        <v>2.6037</v>
       </c>
       <c r="F42" t="n">
-        <v>1.7967</v>
+        <v>1.8098</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6775</v>
+        <v>0.6008</v>
       </c>
       <c r="H42" t="n">
-        <v>2.6654</v>
+        <v>2.9655</v>
       </c>
       <c r="I42" t="n">
-        <v>1.7608</v>
+        <v>1.5826</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1932,28 +1932,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.7402</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>2.4016</v>
+        <v>2.5544</v>
       </c>
       <c r="F43" t="n">
-        <v>1.9621</v>
+        <v>1.8447</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6823</v>
+        <v>0.63</v>
       </c>
       <c r="H43" t="n">
-        <v>2.6452</v>
+        <v>2.8548</v>
       </c>
       <c r="I43" t="n">
-        <v>1.7742</v>
+        <v>1.644</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1967,28 +1967,28 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.695</v>
+        <v>0.658</v>
       </c>
       <c r="E44" t="n">
-        <v>2.6023</v>
+        <v>2.7558</v>
       </c>
       <c r="F44" t="n">
-        <v>1.8108</v>
+        <v>1.7099</v>
       </c>
       <c r="G44" t="n">
-        <v>0.67</v>
+        <v>0.6715</v>
       </c>
       <c r="H44" t="n">
-        <v>2.6962</v>
+        <v>2.6899</v>
       </c>
       <c r="I44" t="n">
-        <v>1.7407</v>
+        <v>1.7448</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2002,28 +2002,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.237</v>
+        <v>0.2144</v>
       </c>
       <c r="E45" t="n">
-        <v>4.1161</v>
+        <v>4.1766</v>
       </c>
       <c r="F45" t="n">
-        <v>1.1448</v>
+        <v>1.1282</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0163</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5248</v>
+        <v>4.6548</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0372</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2037,28 +2037,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6361</v>
+        <v>0.6392</v>
       </c>
       <c r="E46" t="n">
-        <v>2.8426</v>
+        <v>2.8305</v>
       </c>
       <c r="F46" t="n">
-        <v>1.6577</v>
+        <v>1.6648</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6546999999999999</v>
+        <v>0.5631</v>
       </c>
       <c r="H46" t="n">
-        <v>2.7579</v>
+        <v>3.1021</v>
       </c>
       <c r="I46" t="n">
-        <v>1.7017</v>
+        <v>1.5129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2072,28 +2072,28 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6909</v>
+        <v>0.6924</v>
       </c>
       <c r="E47" t="n">
-        <v>4.5162</v>
+        <v>4.5055</v>
       </c>
       <c r="F47" t="n">
-        <v>1.7988</v>
+        <v>1.8031</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6788999999999999</v>
+        <v>0.6018</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5852</v>
+        <v>5.106</v>
       </c>
       <c r="I47" t="n">
-        <v>1.7646</v>
+        <v>1.5846</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2107,28 +2107,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.7402</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>4.1404</v>
+        <v>4.4037</v>
       </c>
       <c r="F48" t="n">
-        <v>1.9621</v>
+        <v>1.8448</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6792</v>
+        <v>0.6327</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5829</v>
+        <v>4.9034</v>
       </c>
       <c r="I48" t="n">
-        <v>1.7655</v>
+        <v>1.6501</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2142,28 +2142,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.695</v>
+        <v>0.658</v>
       </c>
       <c r="E49" t="n">
-        <v>4.4864</v>
+        <v>4.7511</v>
       </c>
       <c r="F49" t="n">
-        <v>1.8108</v>
+        <v>1.7099</v>
       </c>
       <c r="G49" t="n">
-        <v>0.67</v>
+        <v>0.6715</v>
       </c>
       <c r="H49" t="n">
-        <v>4.6483</v>
+        <v>4.6373</v>
       </c>
       <c r="I49" t="n">
-        <v>1.7407</v>
+        <v>1.7448</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2177,28 +2177,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.237</v>
+        <v>0.2144</v>
       </c>
       <c r="E50" t="n">
-        <v>7.0962</v>
+        <v>7.2005</v>
       </c>
       <c r="F50" t="n">
-        <v>1.1448</v>
+        <v>1.1282</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0163</v>
       </c>
       <c r="H50" t="n">
-        <v>7.8008</v>
+        <v>8.024800000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>1.0372</v>
+        <v>1.0083</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SNSBE</t>
+          <t>SNSB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2212,28 +2212,28 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.6269</v>
+        <v>0.62</v>
       </c>
       <c r="E51" t="n">
-        <v>4.9621</v>
+        <v>5.008</v>
       </c>
       <c r="F51" t="n">
-        <v>1.6372</v>
+        <v>1.6222</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6455</v>
+        <v>0.5684</v>
       </c>
       <c r="H51" t="n">
-        <v>4.8175</v>
+        <v>5.3156</v>
       </c>
       <c r="I51" t="n">
-        <v>1.6795</v>
+        <v>1.5222</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2247,28 +2247,28 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5362</v>
+        <v>0.5629</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7473</v>
+        <v>0.7255</v>
       </c>
       <c r="F52" t="n">
-        <v>1.4684</v>
+        <v>1.5125</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3334</v>
+        <v>0.2932</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8157</v>
+        <v>0.8399</v>
       </c>
       <c r="I52" t="n">
-        <v>1.2248</v>
+        <v>1.1895</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2282,28 +2282,28 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.5499000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7362</v>
+        <v>0.7179</v>
       </c>
       <c r="F53" t="n">
-        <v>1.4905</v>
+        <v>1.5285</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2555</v>
+        <v>0.3248</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8621</v>
+        <v>0.8209</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1589</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.4948</v>
+        <v>0.5563</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7799</v>
+        <v>0.7309</v>
       </c>
       <c r="F54" t="n">
-        <v>1.407</v>
+        <v>1.5014</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3148</v>
+        <v>0.32</v>
       </c>
       <c r="H54" t="n">
-        <v>0.827</v>
+        <v>0.8238</v>
       </c>
       <c r="I54" t="n">
-        <v>1.2081</v>
+        <v>1.2128</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2352,28 +2352,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.1254</v>
+        <v>0.2164</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0262</v>
+        <v>0.9714</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0693</v>
+        <v>1.1296</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1651</v>
+        <v>0.283</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9129</v>
+        <v>0.846</v>
       </c>
       <c r="I55" t="n">
-        <v>1.0944</v>
+        <v>1.1809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2387,28 +2387,28 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.459</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8071</v>
+        <v>0.755</v>
       </c>
       <c r="F56" t="n">
-        <v>1.3596</v>
+        <v>1.4534</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1015</v>
+        <v>0.233</v>
       </c>
       <c r="H56" t="n">
-        <v>0.947</v>
+        <v>0.875</v>
       </c>
       <c r="I56" t="n">
-        <v>1.055</v>
+        <v>1.1418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.6997</v>
+        <v>0.6915</v>
       </c>
       <c r="E57" t="n">
-        <v>2.5557</v>
+        <v>2.5902</v>
       </c>
       <c r="F57" t="n">
-        <v>1.8247</v>
+        <v>1.8004</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6011</v>
+        <v>0.6735</v>
       </c>
       <c r="H57" t="n">
-        <v>2.9336</v>
+        <v>2.6542</v>
       </c>
       <c r="I57" t="n">
-        <v>1.5833</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2457,28 +2457,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.7064</v>
+        <v>0.7402</v>
       </c>
       <c r="E58" t="n">
-        <v>2.5269</v>
+        <v>2.3768</v>
       </c>
       <c r="F58" t="n">
-        <v>1.8455</v>
+        <v>1.9621</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5766</v>
+        <v>0.6742</v>
       </c>
       <c r="H58" t="n">
-        <v>3.0223</v>
+        <v>2.6513</v>
       </c>
       <c r="I58" t="n">
-        <v>1.5368</v>
+        <v>1.7519</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2492,28 +2492,28 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.6713</v>
+        <v>0.695</v>
       </c>
       <c r="E59" t="n">
-        <v>2.6738</v>
+        <v>2.5754</v>
       </c>
       <c r="F59" t="n">
-        <v>1.7441</v>
+        <v>1.8108</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6592</v>
+        <v>0.67</v>
       </c>
       <c r="H59" t="n">
-        <v>2.7114</v>
+        <v>2.6684</v>
       </c>
       <c r="I59" t="n">
-        <v>1.713</v>
+        <v>1.7406</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2527,28 +2527,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.1362</v>
+        <v>0.237</v>
       </c>
       <c r="E60" t="n">
-        <v>4.3342</v>
+        <v>4.0736</v>
       </c>
       <c r="F60" t="n">
-        <v>1.076</v>
+        <v>1.1448</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1274</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>4.3387</v>
+        <v>4.4781</v>
       </c>
       <c r="I60" t="n">
-        <v>1.0705</v>
+        <v>1.0372</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2562,28 +2562,28 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.6315</v>
+        <v>0.6363</v>
       </c>
       <c r="E61" t="n">
-        <v>2.8308</v>
+        <v>2.8124</v>
       </c>
       <c r="F61" t="n">
-        <v>1.6474</v>
+        <v>1.6582</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5819</v>
+        <v>0.6546</v>
       </c>
       <c r="H61" t="n">
-        <v>3.0032</v>
+        <v>2.7296</v>
       </c>
       <c r="I61" t="n">
-        <v>1.5466</v>
+        <v>1.7016</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2597,28 +2597,28 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5637</v>
+        <v>0.597</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1283</v>
+        <v>0.1233</v>
       </c>
       <c r="F62" t="n">
-        <v>1.5143</v>
+        <v>1.5757</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3001</v>
+        <v>0.2743</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1577</v>
+        <v>0.1606</v>
       </c>
       <c r="I62" t="n">
-        <v>1.1955</v>
+        <v>1.1739</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2632,28 +2632,28 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.5462</v>
+        <v>0.5847</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1309</v>
+        <v>0.1252</v>
       </c>
       <c r="F63" t="n">
-        <v>1.4842</v>
+        <v>1.5518</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3261</v>
+        <v>0.3003</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1548</v>
+        <v>0.1577</v>
       </c>
       <c r="I63" t="n">
-        <v>1.2179</v>
+        <v>1.1955</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2667,28 +2667,28 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.5265</v>
+        <v>0.5666</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1337</v>
+        <v>0.1279</v>
       </c>
       <c r="F64" t="n">
-        <v>1.4532</v>
+        <v>1.5191</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3126</v>
+        <v>0.295</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1563</v>
+        <v>0.1583</v>
       </c>
       <c r="I64" t="n">
-        <v>1.2062</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2702,28 +2702,28 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.0698</v>
+        <v>0.1842</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1874</v>
+        <v>0.1755</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0367</v>
+        <v>1.107</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.06569999999999999</v>
+        <v>-0.1976</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1946</v>
+        <v>0.2063</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9688</v>
+        <v>0.9139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2737,28 +2737,28 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.5782</v>
+        <v>0.6889</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1262</v>
+        <v>0.1084</v>
       </c>
       <c r="F66" t="n">
-        <v>1.5395</v>
+        <v>1.7923</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0359</v>
+        <v>-0.3018</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1851</v>
+        <v>0.2151</v>
       </c>
       <c r="I66" t="n">
-        <v>1.0185</v>
+        <v>0.8764999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2772,28 +2772,28 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.7005</v>
+        <v>0.6902</v>
       </c>
       <c r="E67" t="n">
-        <v>2.5788</v>
+        <v>2.6227</v>
       </c>
       <c r="F67" t="n">
-        <v>1.8273</v>
+        <v>1.7967</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5964</v>
+        <v>0.6802</v>
       </c>
       <c r="H67" t="n">
-        <v>2.9817</v>
+        <v>2.6541</v>
       </c>
       <c r="I67" t="n">
-        <v>1.574</v>
+        <v>1.7683</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2807,28 +2807,28 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.7064</v>
+        <v>0.7402</v>
       </c>
       <c r="E68" t="n">
-        <v>2.5532</v>
+        <v>2.4016</v>
       </c>
       <c r="F68" t="n">
-        <v>1.8456</v>
+        <v>1.9621</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5807</v>
+        <v>0.6823</v>
       </c>
       <c r="H68" t="n">
-        <v>3.0392</v>
+        <v>2.6452</v>
       </c>
       <c r="I68" t="n">
-        <v>1.5442</v>
+        <v>1.7742</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2842,28 +2842,28 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.6713</v>
+        <v>0.695</v>
       </c>
       <c r="E69" t="n">
-        <v>2.7018</v>
+        <v>2.6023</v>
       </c>
       <c r="F69" t="n">
-        <v>1.7441</v>
+        <v>1.8108</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6592</v>
+        <v>0.67</v>
       </c>
       <c r="H69" t="n">
-        <v>2.7397</v>
+        <v>2.6962</v>
       </c>
       <c r="I69" t="n">
-        <v>1.713</v>
+        <v>1.7407</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1362</v>
+        <v>0.237</v>
       </c>
       <c r="E70" t="n">
-        <v>4.3795</v>
+        <v>4.1161</v>
       </c>
       <c r="F70" t="n">
-        <v>1.076</v>
+        <v>1.1448</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1274</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>4.384</v>
+        <v>4.5248</v>
       </c>
       <c r="I70" t="n">
-        <v>1.0705</v>
+        <v>1.0372</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2912,28 +2912,28 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.6313</v>
+        <v>0.6361</v>
       </c>
       <c r="E71" t="n">
-        <v>2.8611</v>
+        <v>2.8426</v>
       </c>
       <c r="F71" t="n">
-        <v>1.647</v>
+        <v>1.6577</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5821</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>3.0339</v>
+        <v>2.7579</v>
       </c>
       <c r="I71" t="n">
-        <v>1.5469</v>
+        <v>1.7017</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.6907</v>
       </c>
       <c r="E72" t="n">
-        <v>4.4412</v>
+        <v>4.5181</v>
       </c>
       <c r="F72" t="n">
-        <v>1.8292</v>
+        <v>1.7981</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6095</v>
+        <v>0.6744</v>
       </c>
       <c r="H72" t="n">
-        <v>5.0564</v>
+        <v>4.617</v>
       </c>
       <c r="I72" t="n">
-        <v>1.6002</v>
+        <v>1.7525</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2982,28 +2982,28 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.7064</v>
+        <v>0.7402</v>
       </c>
       <c r="E73" t="n">
-        <v>4.4018</v>
+        <v>4.1404</v>
       </c>
       <c r="F73" t="n">
-        <v>1.8456</v>
+        <v>1.9621</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5815</v>
+        <v>0.6792</v>
       </c>
       <c r="H73" t="n">
-        <v>5.2341</v>
+        <v>4.5829</v>
       </c>
       <c r="I73" t="n">
-        <v>1.5459</v>
+        <v>1.7655</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3017,28 +3017,28 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.6713</v>
+        <v>0.695</v>
       </c>
       <c r="E74" t="n">
-        <v>4.6578</v>
+        <v>4.4864</v>
       </c>
       <c r="F74" t="n">
-        <v>1.7441</v>
+        <v>1.8108</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6592</v>
+        <v>0.67</v>
       </c>
       <c r="H74" t="n">
-        <v>4.7233</v>
+        <v>4.6483</v>
       </c>
       <c r="I74" t="n">
-        <v>1.713</v>
+        <v>1.7407</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3052,28 +3052,28 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.1362</v>
+        <v>0.237</v>
       </c>
       <c r="E75" t="n">
-        <v>7.5502</v>
+        <v>7.0962</v>
       </c>
       <c r="F75" t="n">
-        <v>1.076</v>
+        <v>1.1448</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1274</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>7.5581</v>
+        <v>7.8008</v>
       </c>
       <c r="I75" t="n">
-        <v>1.0705</v>
+        <v>1.0372</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SNSBSD</t>
+          <t>SNSBE</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3087,28 +3087,28 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.622</v>
+        <v>0.6269</v>
       </c>
       <c r="E76" t="n">
-        <v>4.9946</v>
+        <v>4.9621</v>
       </c>
       <c r="F76" t="n">
-        <v>1.6265</v>
+        <v>1.6372</v>
       </c>
       <c r="G76" t="n">
-        <v>0.582</v>
+        <v>0.6455</v>
       </c>
       <c r="H76" t="n">
-        <v>5.231</v>
+        <v>4.8175</v>
       </c>
       <c r="I76" t="n">
-        <v>1.5468</v>
+        <v>1.6795</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3122,28 +3122,28 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.5617</v>
+        <v>0.5363</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7265</v>
+        <v>0.7472</v>
       </c>
       <c r="F77" t="n">
-        <v>1.5104</v>
+        <v>1.4686</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3083</v>
+        <v>0.3336</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8309</v>
+        <v>0.8156</v>
       </c>
       <c r="I77" t="n">
-        <v>1.2024</v>
+        <v>1.225</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3157,28 +3157,28 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.5883</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7040999999999999</v>
+        <v>0.7362</v>
       </c>
       <c r="F78" t="n">
-        <v>1.5585</v>
+        <v>1.4905</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2778</v>
+        <v>0.2555</v>
       </c>
       <c r="H78" t="n">
-        <v>0.849</v>
+        <v>0.8621</v>
       </c>
       <c r="I78" t="n">
-        <v>1.1768</v>
+        <v>1.1589</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3192,28 +3192,28 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5628</v>
+        <v>0.4948</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7256</v>
+        <v>0.7799</v>
       </c>
       <c r="F79" t="n">
-        <v>1.5123</v>
+        <v>1.407</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3051</v>
+        <v>0.3148</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8328</v>
+        <v>0.827</v>
       </c>
       <c r="I79" t="n">
-        <v>1.1997</v>
+        <v>1.2081</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3227,28 +3227,28 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.1428</v>
+        <v>0.1254</v>
       </c>
       <c r="E80" t="n">
-        <v>1.016</v>
+        <v>1.0262</v>
       </c>
       <c r="F80" t="n">
-        <v>1.0801</v>
+        <v>1.0693</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2006</v>
+        <v>0.1651</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8932</v>
+        <v>0.9129</v>
       </c>
       <c r="I80" t="n">
-        <v>1.1185</v>
+        <v>1.0944</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3262,28 +3262,28 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.4824</v>
+        <v>0.459</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7894</v>
+        <v>0.8071</v>
       </c>
       <c r="F81" t="n">
-        <v>1.3901</v>
+        <v>1.3596</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0505</v>
+        <v>0.1015</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9735</v>
+        <v>0.947</v>
       </c>
       <c r="I81" t="n">
-        <v>1.0263</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3297,28 +3297,28 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.6985</v>
+        <v>0.7</v>
       </c>
       <c r="E82" t="n">
-        <v>2.5608</v>
+        <v>2.5542</v>
       </c>
       <c r="F82" t="n">
-        <v>1.8211</v>
+        <v>1.8258</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6344</v>
+        <v>0.5982</v>
       </c>
       <c r="H82" t="n">
-        <v>2.8083</v>
+        <v>2.9441</v>
       </c>
       <c r="I82" t="n">
-        <v>1.6539</v>
+        <v>1.5776</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3332,28 +3332,28 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.7411</v>
+        <v>0.7064</v>
       </c>
       <c r="E83" t="n">
-        <v>2.373</v>
+        <v>2.5269</v>
       </c>
       <c r="F83" t="n">
-        <v>1.9652</v>
+        <v>1.8455</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6623</v>
+        <v>0.5762</v>
       </c>
       <c r="H83" t="n">
-        <v>2.6992</v>
+        <v>3.0235</v>
       </c>
       <c r="I83" t="n">
-        <v>1.7208</v>
+        <v>1.5362</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.7033</v>
+        <v>0.6713</v>
       </c>
       <c r="E84" t="n">
-        <v>2.5404</v>
+        <v>2.6738</v>
       </c>
       <c r="F84" t="n">
-        <v>1.8357</v>
+        <v>1.7441</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6588000000000001</v>
+        <v>0.6592</v>
       </c>
       <c r="H84" t="n">
-        <v>2.7131</v>
+        <v>2.7114</v>
       </c>
       <c r="I84" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3402,28 +3402,28 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.1539</v>
+        <v>0.1362</v>
       </c>
       <c r="E85" t="n">
-        <v>4.2898</v>
+        <v>4.3342</v>
       </c>
       <c r="F85" t="n">
-        <v>1.0871</v>
+        <v>1.076</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1602</v>
+        <v>0.1274</v>
       </c>
       <c r="H85" t="n">
-        <v>4.2566</v>
+        <v>4.3387</v>
       </c>
       <c r="I85" t="n">
-        <v>1.0912</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3437,28 +3437,28 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.6411</v>
+        <v>0.6315</v>
       </c>
       <c r="E86" t="n">
-        <v>2.7937</v>
+        <v>2.8308</v>
       </c>
       <c r="F86" t="n">
-        <v>1.6693</v>
+        <v>1.6474</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6158</v>
+        <v>0.5819</v>
       </c>
       <c r="H86" t="n">
-        <v>2.8789</v>
+        <v>3.0032</v>
       </c>
       <c r="I86" t="n">
-        <v>1.6134</v>
+        <v>1.5466</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3472,28 +3472,28 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5765</v>
+        <v>0.5632</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1264</v>
+        <v>0.1284</v>
       </c>
       <c r="F87" t="n">
-        <v>1.5371</v>
+        <v>1.5131</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2743</v>
+        <v>0.3001</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1606</v>
+        <v>0.1577</v>
       </c>
       <c r="I87" t="n">
-        <v>1.1739</v>
+        <v>1.1955</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3507,28 +3507,28 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.5753</v>
+        <v>0.5462</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1266</v>
+        <v>0.1309</v>
       </c>
       <c r="F88" t="n">
-        <v>1.5346</v>
+        <v>1.4842</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2749</v>
+        <v>0.3261</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1605</v>
+        <v>0.1548</v>
       </c>
       <c r="I88" t="n">
-        <v>1.1746</v>
+        <v>1.2179</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3542,28 +3542,28 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5547</v>
+        <v>0.5265</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1296</v>
+        <v>0.1337</v>
       </c>
       <c r="F89" t="n">
-        <v>1.4991</v>
+        <v>1.4532</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2857</v>
+        <v>0.3126</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1593</v>
+        <v>0.1563</v>
       </c>
       <c r="I89" t="n">
-        <v>1.1835</v>
+        <v>1.2062</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3577,28 +3577,28 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.0809</v>
+        <v>0.0698</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1863</v>
+        <v>0.1874</v>
       </c>
       <c r="F90" t="n">
-        <v>1.0429</v>
+        <v>1.0367</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0701</v>
+        <v>-0.06569999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0.195</v>
+        <v>0.1946</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9668</v>
+        <v>0.9688</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3612,28 +3612,28 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.5933</v>
+        <v>0.5782</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1239</v>
+        <v>0.1262</v>
       </c>
       <c r="F91" t="n">
-        <v>1.5681</v>
+        <v>1.5395</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0703</v>
+        <v>0.0359</v>
       </c>
       <c r="H91" t="n">
-        <v>0.195</v>
+        <v>0.1851</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9668</v>
+        <v>1.0185</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3647,28 +3647,28 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.7006</v>
+        <v>0.7004</v>
       </c>
       <c r="E92" t="n">
-        <v>2.5785</v>
+        <v>2.5792</v>
       </c>
       <c r="F92" t="n">
-        <v>1.8275</v>
+        <v>1.827</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6294</v>
+        <v>0.5964</v>
       </c>
       <c r="H92" t="n">
-        <v>2.857</v>
+        <v>2.9817</v>
       </c>
       <c r="I92" t="n">
-        <v>1.6427</v>
+        <v>1.574</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3682,28 +3682,28 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.7411</v>
+        <v>0.7064</v>
       </c>
       <c r="E93" t="n">
-        <v>2.3977</v>
+        <v>2.5532</v>
       </c>
       <c r="F93" t="n">
-        <v>1.9653</v>
+        <v>1.8456</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6627999999999999</v>
+        <v>0.5807</v>
       </c>
       <c r="H93" t="n">
-        <v>2.7253</v>
+        <v>3.0392</v>
       </c>
       <c r="I93" t="n">
-        <v>1.7221</v>
+        <v>1.5442</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3717,28 +3717,28 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.7033</v>
+        <v>0.6713</v>
       </c>
       <c r="E94" t="n">
-        <v>2.5669</v>
+        <v>2.7018</v>
       </c>
       <c r="F94" t="n">
-        <v>1.8357</v>
+        <v>1.7441</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6588000000000001</v>
+        <v>0.6592</v>
       </c>
       <c r="H94" t="n">
-        <v>2.7414</v>
+        <v>2.7397</v>
       </c>
       <c r="I94" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3752,28 +3752,28 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1539</v>
+        <v>0.1362</v>
       </c>
       <c r="E95" t="n">
-        <v>4.3346</v>
+        <v>4.3795</v>
       </c>
       <c r="F95" t="n">
-        <v>1.0871</v>
+        <v>1.076</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1602</v>
+        <v>0.1274</v>
       </c>
       <c r="H95" t="n">
-        <v>4.301</v>
+        <v>4.384</v>
       </c>
       <c r="I95" t="n">
-        <v>1.0912</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3787,28 +3787,28 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.6411</v>
+        <v>0.6313</v>
       </c>
       <c r="E96" t="n">
-        <v>2.8231</v>
+        <v>2.8611</v>
       </c>
       <c r="F96" t="n">
-        <v>1.6692</v>
+        <v>1.647</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6162</v>
+        <v>0.5821</v>
       </c>
       <c r="H96" t="n">
-        <v>2.9075</v>
+        <v>3.0339</v>
       </c>
       <c r="I96" t="n">
-        <v>1.6142</v>
+        <v>1.5469</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3822,28 +3822,28 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.6956</v>
+        <v>0.702</v>
       </c>
       <c r="E97" t="n">
-        <v>4.4823</v>
+        <v>4.4349</v>
       </c>
       <c r="F97" t="n">
-        <v>1.8124</v>
+        <v>1.8318</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6303</v>
+        <v>0.6098</v>
       </c>
       <c r="H97" t="n">
-        <v>4.92</v>
+        <v>5.054</v>
       </c>
       <c r="I97" t="n">
-        <v>1.6445</v>
+        <v>1.6009</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3857,28 +3857,28 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.7411</v>
+        <v>0.7064</v>
       </c>
       <c r="E98" t="n">
-        <v>4.1337</v>
+        <v>4.4018</v>
       </c>
       <c r="F98" t="n">
-        <v>1.9653</v>
+        <v>1.8456</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6623</v>
+        <v>0.5815</v>
       </c>
       <c r="H98" t="n">
-        <v>4.702</v>
+        <v>5.2341</v>
       </c>
       <c r="I98" t="n">
-        <v>1.7208</v>
+        <v>1.5459</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3892,28 +3892,28 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.7033</v>
+        <v>0.6713</v>
       </c>
       <c r="E99" t="n">
-        <v>4.4254</v>
+        <v>4.6578</v>
       </c>
       <c r="F99" t="n">
-        <v>1.8357</v>
+        <v>1.7441</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6588000000000001</v>
+        <v>0.6592</v>
       </c>
       <c r="H99" t="n">
-        <v>4.7262</v>
+        <v>4.7233</v>
       </c>
       <c r="I99" t="n">
-        <v>1.712</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SNSBESD</t>
+          <t>SNSBSD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3927,56 +3927,931 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.1539</v>
+        <v>0.1362</v>
       </c>
       <c r="E100" t="n">
-        <v>7.4728</v>
+        <v>7.5502</v>
       </c>
       <c r="F100" t="n">
-        <v>1.0871</v>
+        <v>1.076</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1602</v>
+        <v>0.1274</v>
       </c>
       <c r="H100" t="n">
-        <v>7.415</v>
+        <v>7.5581</v>
       </c>
       <c r="I100" t="n">
-        <v>1.0912</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>SNSBSD</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.9946</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.6265</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5.231</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.5468</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>SNSBESD</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>EOC</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.5102</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.3083</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.8309</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.2024</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>EOC</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.5883</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7040999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.5585</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.1768</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EOC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5628</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.7256</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.5123</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.3051</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.8328</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.1997</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>EOC</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.0801</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.2006</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.8932</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.1185</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>EOC</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4824</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.7894</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.3901</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9735</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.0263</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.6985</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.5608</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.8211</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.6334</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.8123</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.6516</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.7411</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.373</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.9652</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.6623</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.6992</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.7208</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.7033</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.5404</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.8357</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.6588000000000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2.7131</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.712</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.2898</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.0871</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.1602</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4.2566</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.0912</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6411</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.7937</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.6693</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2.8789</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.6134</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>WOC</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5764</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.5359</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.1605</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.1746</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>WOC</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5753</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1266</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.5346</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.2749</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.1605</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.1746</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>WOC</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5547</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.1296</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.4991</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.1593</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.1835</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>WOC</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1863</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.0429</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.0701</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9668</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>WOC</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.5681</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.0703</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9668</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6989</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.5857</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.8224</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.6345</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.8373</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.6541</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.7411</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.3977</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.9653</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.6627999999999999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.7253</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.7221</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.7033</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.5669</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.8357</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.6588000000000001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.7414</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.712</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.3346</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.0871</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.1602</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4.301</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.0912</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6411</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.8231</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.6692</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.9075</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.6142</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6956</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.4818</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.8126</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.6292</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4.9268</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.6423</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.7411</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.1337</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.9653</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.6623</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4.702</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.7208</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.7033</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.4254</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.8357</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.6588000000000001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4.7262</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.712</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.4728</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.0871</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.1602</v>
+      </c>
+      <c r="H125" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.0912</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SNSBESD</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D126" t="n">
         <v>0.6317</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E126" t="n">
         <v>4.9299</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F126" t="n">
         <v>1.6479</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G126" t="n">
         <v>0.6237</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H126" t="n">
         <v>4.9631</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I126" t="n">
         <v>1.6303</v>
       </c>
     </row>
